--- a/JWN.xlsx
+++ b/JWN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07C6E2-4CB9-46F0-B30A-19B5FCF091DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B87384-8F3F-4EE6-9F1B-A2CE4AE0B2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ACBE83E2-E1FB-4DB5-8434-03B7A303B66F}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{ACBE83E2-E1FB-4DB5-8434-03B7A303B66F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,12 +208,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -234,6 +232,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,17 +270,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,46 +620,47 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>24.29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>164.906936</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="5">
@@ -654,34 +668,34 @@
         <v>4005.5894754400001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="5">
         <v>397</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="5">
         <f>2617+0</f>
         <v>2617</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="5">
@@ -705,48 +719,49 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="5"/>
@@ -786,8 +801,8 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="5"/>
@@ -827,8 +842,8 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="5"/>
@@ -868,39 +883,39 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f t="shared" ref="C6:H6" si="0">+SUM(C3:C5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <f>+SUM(I3:I5)</f>
         <v>381</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <f t="shared" ref="J6" si="1">+SUM(J3:J5)</f>
         <v>0</v>
       </c>
@@ -929,7 +944,7 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -964,8 +979,8 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="5"/>
@@ -1001,8 +1016,8 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5"/>
@@ -1038,7 +1053,7 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1072,8 +1087,8 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="5"/>
@@ -1113,8 +1128,8 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5"/>
@@ -1154,8 +1169,8 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5"/>
@@ -1195,8 +1210,8 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="5"/>
@@ -1236,39 +1251,39 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <f t="shared" ref="C15:H15" si="2">+C13+C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
         <v>3320</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <f>+I13+I14</f>
         <v>3464</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <f t="shared" ref="J15" si="3">+J13+J14</f>
         <v>0</v>
       </c>
@@ -1297,8 +1312,8 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="5"/>
@@ -1338,8 +1353,8 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5">
@@ -1399,8 +1414,8 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="5"/>
@@ -1440,8 +1455,8 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="5"/>
@@ -1481,8 +1496,8 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="5">
@@ -1542,8 +1557,8 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
@@ -1583,8 +1598,8 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="5">
@@ -1644,8 +1659,8 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="5"/>
@@ -1685,8 +1700,8 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="5">
@@ -1746,7 +1761,7 @@
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1780,39 +1795,39 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7" t="e">
+      <c r="C26" s="8" t="e">
         <f t="shared" ref="C26:D26" si="12">+C24/C27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="7" t="e">
+      <c r="D26" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <f>+E24/E27</f>
         <v>0.41358024691358025</v>
       </c>
-      <c r="F26" s="7" t="e">
+      <c r="F26" s="8" t="e">
         <f t="shared" ref="F26:J26" si="13">+F24/F27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f t="shared" si="13"/>
         <v>0.27946537059538273</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1841,22 +1856,22 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>162</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>164.6</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1882,7 +1897,7 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1916,7 +1931,7 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1950,7 +1965,7 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1984,7 +1999,7 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2018,7 +2033,7 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2052,7 +2067,7 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2086,7 +2101,7 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2120,7 +2135,7 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2154,7 +2169,7 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2188,7 +2203,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2222,7 +2237,7 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2256,7 +2271,7 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2290,7 +2305,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2324,7 +2339,7 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2358,7 +2373,7 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2392,7 +2407,7 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2426,7 +2441,7 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2460,7 +2475,7 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2494,7 +2509,7 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2528,7 +2543,7 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
     </row>
-    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2562,7 +2577,7 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
     </row>
-    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2596,7 +2611,7 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2630,7 +2645,7 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2664,7 +2679,7 @@
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2698,7 +2713,7 @@
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2732,7 +2747,7 @@
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
     </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2766,7 +2781,7 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2800,7 +2815,7 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
     </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2834,7 +2849,7 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
     </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2868,7 +2883,7 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
     </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2902,7 +2917,7 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
     </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2936,7 +2951,7 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2970,7 +2985,7 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3004,7 +3019,7 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3038,7 +3053,7 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3072,7 +3087,7 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
     </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3106,7 +3121,7 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
     </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3140,7 +3155,7 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3174,7 +3189,7 @@
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3208,7 +3223,7 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3242,7 +3257,7 @@
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3276,7 +3291,7 @@
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3310,7 +3325,7 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3344,7 +3359,7 @@
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
     </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3378,7 +3393,7 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
     </row>
-    <row r="72" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3412,7 +3427,7 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
     </row>
-    <row r="73" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3446,7 +3461,7 @@
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
     </row>
-    <row r="74" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3480,7 +3495,7 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
     </row>
-    <row r="75" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3514,7 +3529,7 @@
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
     </row>
-    <row r="76" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3548,7 +3563,7 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
     </row>
-    <row r="77" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3582,7 +3597,7 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
     </row>
-    <row r="78" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3616,7 +3631,7 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
     </row>
-    <row r="79" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3650,7 +3665,7 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
     </row>
-    <row r="80" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3684,7 +3699,7 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
     </row>
-    <row r="81" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3718,7 +3733,7 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
     </row>
-    <row r="82" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3752,7 +3767,7 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
     </row>
-    <row r="83" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3786,7 +3801,7 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
     </row>
-    <row r="84" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3820,7 +3835,7 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
     </row>
-    <row r="85" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3854,7 +3869,7 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
     </row>
-    <row r="86" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3888,7 +3903,7 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
     </row>
-    <row r="87" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3922,7 +3937,7 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
     </row>
-    <row r="88" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3956,7 +3971,7 @@
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
     </row>
-    <row r="89" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3990,7 +4005,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
     </row>
-    <row r="90" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4024,7 +4039,7 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
     </row>
-    <row r="91" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4058,7 +4073,7 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
     </row>
-    <row r="92" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4092,7 +4107,7 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
     </row>
-    <row r="93" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4126,7 +4141,7 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
     </row>
-    <row r="94" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4160,7 +4175,7 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
     </row>
-    <row r="95" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4194,7 +4209,7 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
     </row>
-    <row r="96" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4228,7 +4243,7 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
     </row>
-    <row r="97" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4262,7 +4277,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4296,7 +4311,7 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
     </row>
-    <row r="99" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4330,7 +4345,7 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
     </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4364,7 +4379,7 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
     </row>
-    <row r="101" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4398,7 +4413,7 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
     </row>
-    <row r="102" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4432,7 +4447,7 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
     </row>
-    <row r="103" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4466,7 +4481,7 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
     </row>
-    <row r="104" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4500,7 +4515,7 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
     </row>
-    <row r="105" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4534,7 +4549,7 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
     </row>
-    <row r="106" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4568,7 +4583,7 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
     </row>
-    <row r="107" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4602,7 +4617,7 @@
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
     </row>
-    <row r="108" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4636,7 +4651,7 @@
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
     </row>
-    <row r="109" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4670,7 +4685,7 @@
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
     </row>
-    <row r="110" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4704,7 +4719,7 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
     </row>
-    <row r="111" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4738,7 +4753,7 @@
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
     </row>
-    <row r="112" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4772,7 +4787,7 @@
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
     </row>
-    <row r="113" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4806,7 +4821,7 @@
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
     </row>
-    <row r="114" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4840,7 +4855,7 @@
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
     </row>
-    <row r="115" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4874,7 +4889,7 @@
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
     </row>
-    <row r="116" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4908,7 +4923,7 @@
       <c r="AG116" s="5"/>
       <c r="AH116" s="5"/>
     </row>
-    <row r="117" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4942,7 +4957,7 @@
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
     </row>
-    <row r="118" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4976,7 +4991,7 @@
       <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
     </row>
-    <row r="119" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -5010,7 +5025,7 @@
       <c r="AG119" s="5"/>
       <c r="AH119" s="5"/>
     </row>
-    <row r="120" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5044,7 +5059,7 @@
       <c r="AG120" s="5"/>
       <c r="AH120" s="5"/>
     </row>
-    <row r="121" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -5078,7 +5093,7 @@
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
     </row>
-    <row r="122" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -5112,7 +5127,7 @@
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
     </row>
-    <row r="123" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -5146,7 +5161,7 @@
       <c r="AG123" s="5"/>
       <c r="AH123" s="5"/>
     </row>
-    <row r="124" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -5180,7 +5195,7 @@
       <c r="AG124" s="5"/>
       <c r="AH124" s="5"/>
     </row>
-    <row r="125" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -5214,7 +5229,7 @@
       <c r="AG125" s="5"/>
       <c r="AH125" s="5"/>
     </row>
-    <row r="126" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -5248,7 +5263,7 @@
       <c r="AG126" s="5"/>
       <c r="AH126" s="5"/>
     </row>
-    <row r="127" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -5282,7 +5297,7 @@
       <c r="AG127" s="5"/>
       <c r="AH127" s="5"/>
     </row>
-    <row r="128" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5316,7 +5331,7 @@
       <c r="AG128" s="5"/>
       <c r="AH128" s="5"/>
     </row>
-    <row r="129" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -5350,7 +5365,7 @@
       <c r="AG129" s="5"/>
       <c r="AH129" s="5"/>
     </row>
-    <row r="130" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -5384,7 +5399,7 @@
       <c r="AG130" s="5"/>
       <c r="AH130" s="5"/>
     </row>
-    <row r="131" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -5418,7 +5433,7 @@
       <c r="AG131" s="5"/>
       <c r="AH131" s="5"/>
     </row>
-    <row r="132" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5452,7 +5467,7 @@
       <c r="AG132" s="5"/>
       <c r="AH132" s="5"/>
     </row>
-    <row r="133" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5486,7 +5501,7 @@
       <c r="AG133" s="5"/>
       <c r="AH133" s="5"/>
     </row>
-    <row r="134" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -5520,7 +5535,7 @@
       <c r="AG134" s="5"/>
       <c r="AH134" s="5"/>
     </row>
-    <row r="135" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5554,7 +5569,7 @@
       <c r="AG135" s="5"/>
       <c r="AH135" s="5"/>
     </row>
-    <row r="136" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -5588,7 +5603,7 @@
       <c r="AG136" s="5"/>
       <c r="AH136" s="5"/>
     </row>
-    <row r="137" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -5622,7 +5637,7 @@
       <c r="AG137" s="5"/>
       <c r="AH137" s="5"/>
     </row>
-    <row r="138" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -5656,7 +5671,7 @@
       <c r="AG138" s="5"/>
       <c r="AH138" s="5"/>
     </row>
-    <row r="139" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -5690,7 +5705,7 @@
       <c r="AG139" s="5"/>
       <c r="AH139" s="5"/>
     </row>
-    <row r="140" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -5724,7 +5739,7 @@
       <c r="AG140" s="5"/>
       <c r="AH140" s="5"/>
     </row>
-    <row r="141" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5758,7 +5773,7 @@
       <c r="AG141" s="5"/>
       <c r="AH141" s="5"/>
     </row>
-    <row r="142" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -5792,7 +5807,7 @@
       <c r="AG142" s="5"/>
       <c r="AH142" s="5"/>
     </row>
-    <row r="143" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -5826,7 +5841,7 @@
       <c r="AG143" s="5"/>
       <c r="AH143" s="5"/>
     </row>
-    <row r="144" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -5860,7 +5875,7 @@
       <c r="AG144" s="5"/>
       <c r="AH144" s="5"/>
     </row>
-    <row r="145" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -5894,7 +5909,7 @@
       <c r="AG145" s="5"/>
       <c r="AH145" s="5"/>
     </row>
-    <row r="146" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5928,7 +5943,7 @@
       <c r="AG146" s="5"/>
       <c r="AH146" s="5"/>
     </row>
-    <row r="147" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5962,7 +5977,7 @@
       <c r="AG147" s="5"/>
       <c r="AH147" s="5"/>
     </row>
-    <row r="148" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5996,7 +6011,7 @@
       <c r="AG148" s="5"/>
       <c r="AH148" s="5"/>
     </row>
-    <row r="149" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -6030,7 +6045,7 @@
       <c r="AG149" s="5"/>
       <c r="AH149" s="5"/>
     </row>
-    <row r="150" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -6064,7 +6079,7 @@
       <c r="AG150" s="5"/>
       <c r="AH150" s="5"/>
     </row>
-    <row r="151" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -6098,7 +6113,7 @@
       <c r="AG151" s="5"/>
       <c r="AH151" s="5"/>
     </row>
-    <row r="152" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -6132,7 +6147,7 @@
       <c r="AG152" s="5"/>
       <c r="AH152" s="5"/>
     </row>
-    <row r="153" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -6166,7 +6181,7 @@
       <c r="AG153" s="5"/>
       <c r="AH153" s="5"/>
     </row>
-    <row r="154" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6200,7 +6215,7 @@
       <c r="AG154" s="5"/>
       <c r="AH154" s="5"/>
     </row>
-    <row r="155" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6234,7 +6249,7 @@
       <c r="AG155" s="5"/>
       <c r="AH155" s="5"/>
     </row>
-    <row r="156" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6268,7 +6283,7 @@
       <c r="AG156" s="5"/>
       <c r="AH156" s="5"/>
     </row>
-    <row r="157" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6302,7 +6317,7 @@
       <c r="AG157" s="5"/>
       <c r="AH157" s="5"/>
     </row>
-    <row r="158" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6336,7 +6351,7 @@
       <c r="AG158" s="5"/>
       <c r="AH158" s="5"/>
     </row>
-    <row r="159" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6370,7 +6385,7 @@
       <c r="AG159" s="5"/>
       <c r="AH159" s="5"/>
     </row>
-    <row r="160" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6404,7 +6419,7 @@
       <c r="AG160" s="5"/>
       <c r="AH160" s="5"/>
     </row>
-    <row r="161" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6438,7 +6453,7 @@
       <c r="AG161" s="5"/>
       <c r="AH161" s="5"/>
     </row>
-    <row r="162" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6472,7 +6487,7 @@
       <c r="AG162" s="5"/>
       <c r="AH162" s="5"/>
     </row>
-    <row r="163" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6506,7 +6521,7 @@
       <c r="AG163" s="5"/>
       <c r="AH163" s="5"/>
     </row>
-    <row r="164" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6540,7 +6555,7 @@
       <c r="AG164" s="5"/>
       <c r="AH164" s="5"/>
     </row>
-    <row r="165" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6574,7 +6589,7 @@
       <c r="AG165" s="5"/>
       <c r="AH165" s="5"/>
     </row>
-    <row r="166" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6608,7 +6623,7 @@
       <c r="AG166" s="5"/>
       <c r="AH166" s="5"/>
     </row>
-    <row r="167" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6642,7 +6657,7 @@
       <c r="AG167" s="5"/>
       <c r="AH167" s="5"/>
     </row>
-    <row r="168" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6676,7 +6691,7 @@
       <c r="AG168" s="5"/>
       <c r="AH168" s="5"/>
     </row>
-    <row r="169" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6710,7 +6725,7 @@
       <c r="AG169" s="5"/>
       <c r="AH169" s="5"/>
     </row>
-    <row r="170" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6744,7 +6759,7 @@
       <c r="AG170" s="5"/>
       <c r="AH170" s="5"/>
     </row>
-    <row r="171" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6778,7 +6793,7 @@
       <c r="AG171" s="5"/>
       <c r="AH171" s="5"/>
     </row>
-    <row r="172" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6812,7 +6827,7 @@
       <c r="AG172" s="5"/>
       <c r="AH172" s="5"/>
     </row>
-    <row r="173" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6846,7 +6861,7 @@
       <c r="AG173" s="5"/>
       <c r="AH173" s="5"/>
     </row>
-    <row r="174" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6880,7 +6895,7 @@
       <c r="AG174" s="5"/>
       <c r="AH174" s="5"/>
     </row>
-    <row r="175" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6914,7 +6929,7 @@
       <c r="AG175" s="5"/>
       <c r="AH175" s="5"/>
     </row>
-    <row r="176" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6948,7 +6963,7 @@
       <c r="AG176" s="5"/>
       <c r="AH176" s="5"/>
     </row>
-    <row r="177" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -6982,7 +6997,7 @@
       <c r="AG177" s="5"/>
       <c r="AH177" s="5"/>
     </row>
-    <row r="178" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -7016,7 +7031,7 @@
       <c r="AG178" s="5"/>
       <c r="AH178" s="5"/>
     </row>
-    <row r="179" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -7050,7 +7065,7 @@
       <c r="AG179" s="5"/>
       <c r="AH179" s="5"/>
     </row>
-    <row r="180" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7084,7 +7099,7 @@
       <c r="AG180" s="5"/>
       <c r="AH180" s="5"/>
     </row>
-    <row r="181" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7118,7 +7133,7 @@
       <c r="AG181" s="5"/>
       <c r="AH181" s="5"/>
     </row>
-    <row r="182" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7152,7 +7167,7 @@
       <c r="AG182" s="5"/>
       <c r="AH182" s="5"/>
     </row>
-    <row r="183" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -7186,7 +7201,7 @@
       <c r="AG183" s="5"/>
       <c r="AH183" s="5"/>
     </row>
-    <row r="184" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -7220,7 +7235,7 @@
       <c r="AG184" s="5"/>
       <c r="AH184" s="5"/>
     </row>
-    <row r="185" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -7254,7 +7269,7 @@
       <c r="AG185" s="5"/>
       <c r="AH185" s="5"/>
     </row>
-    <row r="186" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -7288,7 +7303,7 @@
       <c r="AG186" s="5"/>
       <c r="AH186" s="5"/>
     </row>
-    <row r="187" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -7322,7 +7337,7 @@
       <c r="AG187" s="5"/>
       <c r="AH187" s="5"/>
     </row>
-    <row r="188" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7356,7 +7371,7 @@
       <c r="AG188" s="5"/>
       <c r="AH188" s="5"/>
     </row>
-    <row r="189" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7390,7 +7405,7 @@
       <c r="AG189" s="5"/>
       <c r="AH189" s="5"/>
     </row>
-    <row r="190" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -7424,7 +7439,7 @@
       <c r="AG190" s="5"/>
       <c r="AH190" s="5"/>
     </row>
-    <row r="191" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -7458,7 +7473,7 @@
       <c r="AG191" s="5"/>
       <c r="AH191" s="5"/>
     </row>
-    <row r="192" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -7492,7 +7507,7 @@
       <c r="AG192" s="5"/>
       <c r="AH192" s="5"/>
     </row>
-    <row r="193" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -7526,7 +7541,7 @@
       <c r="AG193" s="5"/>
       <c r="AH193" s="5"/>
     </row>
-    <row r="194" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -7560,7 +7575,7 @@
       <c r="AG194" s="5"/>
       <c r="AH194" s="5"/>
     </row>
-    <row r="195" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -7594,7 +7609,7 @@
       <c r="AG195" s="5"/>
       <c r="AH195" s="5"/>
     </row>
-    <row r="196" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -7628,7 +7643,7 @@
       <c r="AG196" s="5"/>
       <c r="AH196" s="5"/>
     </row>
-    <row r="197" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -7662,7 +7677,7 @@
       <c r="AG197" s="5"/>
       <c r="AH197" s="5"/>
     </row>
-    <row r="198" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -7696,7 +7711,7 @@
       <c r="AG198" s="5"/>
       <c r="AH198" s="5"/>
     </row>
-    <row r="199" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -7730,7 +7745,7 @@
       <c r="AG199" s="5"/>
       <c r="AH199" s="5"/>
     </row>
-    <row r="200" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -7764,7 +7779,7 @@
       <c r="AG200" s="5"/>
       <c r="AH200" s="5"/>
     </row>
-    <row r="201" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -7798,7 +7813,7 @@
       <c r="AG201" s="5"/>
       <c r="AH201" s="5"/>
     </row>
-    <row r="202" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -7832,7 +7847,7 @@
       <c r="AG202" s="5"/>
       <c r="AH202" s="5"/>
     </row>
-    <row r="203" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -7866,7 +7881,7 @@
       <c r="AG203" s="5"/>
       <c r="AH203" s="5"/>
     </row>
-    <row r="204" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -7900,7 +7915,7 @@
       <c r="AG204" s="5"/>
       <c r="AH204" s="5"/>
     </row>
-    <row r="205" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -7934,7 +7949,7 @@
       <c r="AG205" s="5"/>
       <c r="AH205" s="5"/>
     </row>
-    <row r="206" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -7968,7 +7983,7 @@
       <c r="AG206" s="5"/>
       <c r="AH206" s="5"/>
     </row>
-    <row r="207" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -8002,7 +8017,7 @@
       <c r="AG207" s="5"/>
       <c r="AH207" s="5"/>
     </row>
-    <row r="208" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -8036,7 +8051,7 @@
       <c r="AG208" s="5"/>
       <c r="AH208" s="5"/>
     </row>
-    <row r="209" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -8070,7 +8085,7 @@
       <c r="AG209" s="5"/>
       <c r="AH209" s="5"/>
     </row>
-    <row r="210" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -8104,7 +8119,7 @@
       <c r="AG210" s="5"/>
       <c r="AH210" s="5"/>
     </row>
-    <row r="211" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -8138,7 +8153,7 @@
       <c r="AG211" s="5"/>
       <c r="AH211" s="5"/>
     </row>
-    <row r="212" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -8172,7 +8187,7 @@
       <c r="AG212" s="5"/>
       <c r="AH212" s="5"/>
     </row>
-    <row r="213" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -8206,7 +8221,7 @@
       <c r="AG213" s="5"/>
       <c r="AH213" s="5"/>
     </row>
-    <row r="214" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -8240,7 +8255,7 @@
       <c r="AG214" s="5"/>
       <c r="AH214" s="5"/>
     </row>
-    <row r="215" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -8274,7 +8289,7 @@
       <c r="AG215" s="5"/>
       <c r="AH215" s="5"/>
     </row>
-    <row r="216" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -8308,7 +8323,7 @@
       <c r="AG216" s="5"/>
       <c r="AH216" s="5"/>
     </row>
-    <row r="217" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -8342,7 +8357,7 @@
       <c r="AG217" s="5"/>
       <c r="AH217" s="5"/>
     </row>
-    <row r="218" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -8376,7 +8391,7 @@
       <c r="AG218" s="5"/>
       <c r="AH218" s="5"/>
     </row>
-    <row r="219" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -8410,7 +8425,7 @@
       <c r="AG219" s="5"/>
       <c r="AH219" s="5"/>
     </row>
-    <row r="220" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -8444,7 +8459,7 @@
       <c r="AG220" s="5"/>
       <c r="AH220" s="5"/>
     </row>
-    <row r="221" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -8478,7 +8493,7 @@
       <c r="AG221" s="5"/>
       <c r="AH221" s="5"/>
     </row>
-    <row r="222" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -8512,7 +8527,7 @@
       <c r="AG222" s="5"/>
       <c r="AH222" s="5"/>
     </row>
-    <row r="223" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -8546,7 +8561,7 @@
       <c r="AG223" s="5"/>
       <c r="AH223" s="5"/>
     </row>
-    <row r="224" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -8580,7 +8595,7 @@
       <c r="AG224" s="5"/>
       <c r="AH224" s="5"/>
     </row>
-    <row r="225" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -8614,7 +8629,7 @@
       <c r="AG225" s="5"/>
       <c r="AH225" s="5"/>
     </row>
-    <row r="226" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -8648,7 +8663,7 @@
       <c r="AG226" s="5"/>
       <c r="AH226" s="5"/>
     </row>
-    <row r="227" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -8682,7 +8697,7 @@
       <c r="AG227" s="5"/>
       <c r="AH227" s="5"/>
     </row>
-    <row r="228" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>

--- a/JWN.xlsx
+++ b/JWN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B87384-8F3F-4EE6-9F1B-A2CE4AE0B2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4D814-54CB-4D7A-970A-6A89F240581D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{ACBE83E2-E1FB-4DB5-8434-03B7A303B66F}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{ACBE83E2-E1FB-4DB5-8434-03B7A303B66F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve">Nordstrom </t>
   </si>
@@ -189,6 +189,15 @@
   <si>
     <t>Take Rate</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>https://press.nordstrom.com/news-releases/news-release-details/nordstrom-announces-completion-acquisition-nordstrom-family-and/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordstorm family took the company private for 24,25 </t>
+  </si>
 </sst>
 </file>
 
@@ -199,13 +208,19 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,6 +263,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,20 +291,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063432CC-A34B-4959-AFEF-A50BCC54C79E}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,6 +726,21 @@
       <c r="I7" s="5">
         <f>+I4-I5+I6</f>
         <v>6225.5894754399997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
